--- a/2 - RiverWare Modeling/Hydrology/Evap_Hist2.xlsx
+++ b/2 - RiverWare Modeling/Hydrology/Evap_Hist2.xlsx
@@ -17,55 +17,55 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">..1</t>
+    <t xml:space="preserve">X__1</t>
   </si>
   <si>
     <t xml:space="preserve">RES1.Smith.And.Morehouse.Evaporation.Coefficients</t>
   </si>
   <si>
-    <t xml:space="preserve">..3</t>
+    <t xml:space="preserve">X__2</t>
   </si>
   <si>
     <t xml:space="preserve">RES10.Chalk.Creek.Evaporation.Coefficients</t>
   </si>
   <si>
-    <t xml:space="preserve">..5</t>
+    <t xml:space="preserve">X__3</t>
   </si>
   <si>
     <t xml:space="preserve">RES2.Rockport.Evaporation.Coefficients</t>
   </si>
   <si>
-    <t xml:space="preserve">..7</t>
+    <t xml:space="preserve">X__4</t>
   </si>
   <si>
     <t xml:space="preserve">RES3.Echo.Evaporation.Coefficients</t>
   </si>
   <si>
-    <t xml:space="preserve">..9</t>
+    <t xml:space="preserve">X__5</t>
   </si>
   <si>
     <t xml:space="preserve">RES4.Lost.Creek.Evaporation.Coefficients</t>
   </si>
   <si>
-    <t xml:space="preserve">..11</t>
+    <t xml:space="preserve">X__6</t>
   </si>
   <si>
     <t xml:space="preserve">RES5.East.Canyon.Evaporation.Coefficients</t>
   </si>
   <si>
-    <t xml:space="preserve">..13</t>
+    <t xml:space="preserve">X__7</t>
   </si>
   <si>
     <t xml:space="preserve">RES6.Causey.Evaporation.Coefficients</t>
   </si>
   <si>
-    <t xml:space="preserve">..15</t>
+    <t xml:space="preserve">X__8</t>
   </si>
   <si>
     <t xml:space="preserve">RES7.Pineview.Evaporation.Coefficients</t>
   </si>
   <si>
-    <t xml:space="preserve">..17</t>
+    <t xml:space="preserve">X__9</t>
   </si>
   <si>
     <t xml:space="preserve">RES8.Willard.Bay.Evaporation.Coefficients</t>
